--- a/Homework 04/Answer_Homework_04.xlsx
+++ b/Homework 04/Answer_Homework_04.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="84">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -245,7 +245,7 @@
     <t xml:space="preserve">CusEmailAddress</t>
   </si>
   <si>
-    <t xml:space="preserve">ShipName</t>
+    <t xml:space="preserve">ReceiverName</t>
   </si>
   <si>
     <t xml:space="preserve">ShipAddress</t>
@@ -257,7 +257,22 @@
     <t xml:space="preserve">ShipVia</t>
   </si>
   <si>
+    <t xml:space="preserve">Gender</t>
+  </si>
+  <si>
     <t xml:space="preserve">TaxAmount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haven Antonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A244</t>
   </si>
 </sst>
 </file>
@@ -270,7 +285,7 @@
     <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
     <numFmt numFmtId="167" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -301,6 +316,11 @@
       <sz val="16"/>
       <name val="Times New Roman"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -364,7 +384,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -410,6 +430,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -496,9 +524,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1168560</xdr:colOff>
+      <xdr:colOff>1168200</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:rowOff>95400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -508,7 +536,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="127800" y="4880160"/>
-          <a:ext cx="5997240" cy="3834360"/>
+          <a:ext cx="6002640" cy="3834000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -579,14 +607,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>37080</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>83880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>1568520</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>64080</xdr:rowOff>
+      <xdr:colOff>1568160</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>110520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -595,8 +623,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1987560"/>
-          <a:ext cx="46640520" cy="9130320"/>
+          <a:off x="0" y="1872000"/>
+          <a:ext cx="46693800" cy="9129960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -664,9 +692,18 @@
             <a:rPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>({InvoiceID, ItemID} PK, InvoiceDate, CustomerID, BillName, BillAddress, BillPhoneNumber, BillEmailAddress, ShipName, ShipAddress, ShipPhoneNumber,</a:t>
+            <a:t>({InvoiceID, ItemID} PK, InvoiceDate, CustomerID, CusName, CusAddress, CusPhoneNumber, CusEmailAddress, ReceiverName, ReceiverAddress, ReceiverPhoneNumber,</a:t>
           </a:r>
-          <a:br/>
+          <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -731,9 +768,24 @@
             <a:rPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>  PurchaseID, ShipDate, ShipVia, SaleID, SaleName</a:t>
+            <a:t>  </a:t>
           </a:r>
-          <a:br/>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>PurchaseID, ShipDate, ShipVia, SaleID, SaleName, Gender</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -798,7 +850,13 @@
             <a:rPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>  ItemID,  Description, Quantity, UnitPrice, TotalAmountItem, SubTotal, TaxRate, TaxAmount, ShippingFee, Other, Total, AmountPaid, TotalDue, Remarks)</a:t>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>ItemID,  Description, Quantity, UnitPrice, TotalAmountItem, SubTotal, TaxRate, TaxAmount, ShippingFee, Other, Total, AmountPaid, TotalDue, Remarks)</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -902,7 +960,7 @@
             <a:rPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>Invoice({InvoiceID} PK, InvoiceDate, CustomerID, BillName, BillAddress, BillPhoneNumber, BillEmailAddress, ShipName, ShipAddress, ShipPhoneNumber, </a:t>
+            <a:t>Invoice({InvoiceID} PK, InvoiceDate, CustomerID, CusName, CusAddress, CusPhoneNumber, CusEmailAddress, ReceiverName, ReceiverAddress, ReceiverPhoneNumber, </a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -924,7 +982,7 @@
             <a:rPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>PurchaseID, ShipDate, ShipVia, SaleID, SaleName, SubTotal, TaxRate, TaxAmount, ShippingFee, Other, Total, AmountPaid, TotalDue, Remarks)</a:t>
+            <a:t>PurchaseID, ShipDate, ShipVia, SaleID, SaleName, Gender, SubTotal, TaxRate, TaxAmount, ShippingFee, Other, Total, AmountPaid, TotalDue, Remarks)</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1038,7 +1096,7 @@
             <a:rPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>Invoice({InvoiceID} PK, InvoiceDate, CustomerID, PurchaseID, Remarks</a:t>
+            <a:t>Invoice({InvoiceID} PK, InvoiceDate, CustomerID, PurchaseID, ReceiverName, ReceiverAddress, ReceiverPhoneNumber, SubTotal, TaxRate, TaxAmount, ShippingFee, Other, Total, AmountPaid, TotalDue, Remarks)</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1064,8 +1122,133 @@
             <a:rPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>Customer({CustomerID} PK, </a:t>
+            <a:t>Customer({CustomerID} PK, CusName, CusAddress, CusPhoneNumber, CusEmailAddress)</a:t>
           </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>PurchaseOrder({PurchaseID} PK, ShipDate, ShipVia, SaleID)</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>SaleStaff({SaleID} PK, SaleName, Gender)</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>128160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>510120</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>46800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextShape 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="49960440" y="1753560"/>
+          <a:ext cx="6956640" cy="2844720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>1NF:</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>({InvoiceID, CustomerID} PK, DateOfPaid, Amount, PaymentMethod, AdditionalInfo)</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
@@ -1084,11 +1267,11 @@
   </sheetPr>
   <dimension ref="A1:AF15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="23.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="25.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1315,13 +1498,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI1011"/>
+  <dimension ref="A1:AK1011"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B33" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AK22" activeCellId="0" sqref="AK22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1364,63 +1547,65 @@
         <v>9</v>
       </c>
       <c r="N1" s="2"/>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="2" t="s">
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1463,61 +1648,63 @@
         <v>58</v>
       </c>
       <c r="N2" s="3"/>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="3"/>
+      <c r="P2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="R2" s="3" t="n">
+      <c r="S2" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="S2" s="8" t="n">
+      <c r="T2" s="8" t="n">
         <v>10.1</v>
       </c>
-      <c r="T2" s="8" t="n">
+      <c r="U2" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="U2" s="8" t="n">
+      <c r="V2" s="8" t="n">
         <v>300</v>
       </c>
-      <c r="V2" s="9" t="n">
+      <c r="W2" s="9" t="n">
         <v>0.038</v>
       </c>
-      <c r="W2" s="8" t="n">
+      <c r="X2" s="8" t="n">
         <v>11.4</v>
       </c>
-      <c r="X2" s="8" t="n">
+      <c r="Y2" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="Y2" s="8" t="n">
+      <c r="Z2" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="Z2" s="8" t="n">
+      <c r="AA2" s="8" t="n">
         <v>356.4</v>
       </c>
-      <c r="AA2" s="8" t="n">
+      <c r="AB2" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="AB2" s="8" t="n">
+      <c r="AC2" s="8" t="n">
         <v>256.4</v>
       </c>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="7" t="n">
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="7" t="n">
         <v>43132</v>
       </c>
-      <c r="AG2" s="8" t="n">
+      <c r="AI2" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AI2" s="3"/>
+      <c r="AK2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="n">
@@ -1558,61 +1745,63 @@
         <v>58</v>
       </c>
       <c r="N3" s="3"/>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="3"/>
+      <c r="P3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="R3" s="3" t="n">
+      <c r="S3" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="S3" s="10" t="n">
+      <c r="T3" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="T3" s="10" t="n">
+      <c r="U3" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="U3" s="8" t="n">
+      <c r="V3" s="8" t="n">
         <v>300</v>
       </c>
-      <c r="V3" s="9" t="n">
+      <c r="W3" s="9" t="n">
         <v>0.038</v>
       </c>
-      <c r="W3" s="8" t="n">
+      <c r="X3" s="8" t="n">
         <v>11.4</v>
       </c>
-      <c r="X3" s="8" t="n">
+      <c r="Y3" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="Y3" s="8" t="n">
+      <c r="Z3" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="Z3" s="8" t="n">
+      <c r="AA3" s="8" t="n">
         <v>356.4</v>
       </c>
-      <c r="AA3" s="8" t="n">
+      <c r="AB3" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="AB3" s="8" t="n">
+      <c r="AC3" s="8" t="n">
         <v>256.4</v>
       </c>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="7" t="n">
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="7" t="n">
         <v>43101</v>
       </c>
-      <c r="AG3" s="8" t="n">
+      <c r="AI3" s="8" t="n">
         <v>250</v>
       </c>
-      <c r="AH3" s="3" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AI3" s="3"/>
+      <c r="AK3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="n">
@@ -1653,55 +1842,57 @@
         <v>58</v>
       </c>
       <c r="N4" s="3"/>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="3"/>
+      <c r="P4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="R4" s="3" t="n">
+      <c r="S4" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="S4" s="10" t="n">
+      <c r="T4" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="T4" s="10" t="n">
+      <c r="U4" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="U4" s="8" t="n">
+      <c r="V4" s="8" t="n">
         <v>300</v>
       </c>
-      <c r="V4" s="9" t="n">
+      <c r="W4" s="9" t="n">
         <v>0.038</v>
       </c>
-      <c r="W4" s="8" t="n">
+      <c r="X4" s="8" t="n">
         <v>11.4</v>
       </c>
-      <c r="X4" s="8" t="n">
+      <c r="Y4" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="Y4" s="8" t="n">
+      <c r="Z4" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="Z4" s="8" t="n">
+      <c r="AA4" s="8" t="n">
         <v>356.4</v>
       </c>
-      <c r="AA4" s="8" t="n">
+      <c r="AB4" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="AB4" s="8" t="n">
+      <c r="AC4" s="8" t="n">
         <v>256.4</v>
       </c>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="11"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="6"/>
       <c r="AF4" s="11"/>
       <c r="AG4" s="11"/>
       <c r="AH4" s="11"/>
       <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="n">
@@ -1742,58 +1933,60 @@
         <v>58</v>
       </c>
       <c r="N5" s="3"/>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="3"/>
+      <c r="P5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="R5" s="3" t="n">
+      <c r="S5" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="S5" s="10" t="n">
+      <c r="T5" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="T5" s="10" t="n">
+      <c r="U5" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="U5" s="8" t="n">
+      <c r="V5" s="8" t="n">
         <v>300</v>
       </c>
-      <c r="V5" s="9" t="n">
+      <c r="W5" s="9" t="n">
         <v>0.038</v>
       </c>
-      <c r="W5" s="8" t="n">
+      <c r="X5" s="8" t="n">
         <v>11.4</v>
       </c>
-      <c r="X5" s="8" t="n">
+      <c r="Y5" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="Y5" s="8" t="n">
+      <c r="Z5" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="Z5" s="8" t="n">
+      <c r="AA5" s="8" t="n">
         <v>356.4</v>
       </c>
-      <c r="AA5" s="8" t="n">
+      <c r="AB5" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="AB5" s="8" t="n">
+      <c r="AC5" s="8" t="n">
         <v>256.4</v>
       </c>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="11"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="6"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
       <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
@@ -1838,65 +2031,71 @@
       <c r="N7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="W7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="W7" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="X7" s="3" t="s">
+      <c r="X7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="Z7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Z7" s="3" t="s">
+      <c r="AA7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AA7" s="3" t="s">
+      <c r="AB7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AB7" s="3" t="s">
+      <c r="AC7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AC7" s="3" t="s">
+      <c r="AD7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF7" s="3" t="s">
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AG7" s="3" t="s">
+      <c r="AI7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AH7" s="3" t="s">
+      <c r="AJ7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AI7" s="3" t="s">
+      <c r="AK7" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1942,61 +2141,68 @@
         <v>1</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="P8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="R8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="R8" s="3" t="n">
+      <c r="S8" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="S8" s="8" t="n">
+      <c r="T8" s="8" t="n">
         <v>10.1</v>
       </c>
-      <c r="T8" s="8" t="n">
+      <c r="U8" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="U8" s="8" t="n">
+      <c r="V8" s="8" t="n">
         <v>300</v>
       </c>
-      <c r="V8" s="9" t="n">
+      <c r="W8" s="9" t="n">
         <v>0.038</v>
       </c>
-      <c r="W8" s="8" t="n">
+      <c r="X8" s="8" t="n">
         <v>11.4</v>
       </c>
-      <c r="X8" s="8" t="n">
+      <c r="Y8" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="Y8" s="8" t="n">
+      <c r="Z8" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="Z8" s="8" t="n">
+      <c r="AA8" s="8" t="n">
         <v>356.4</v>
       </c>
-      <c r="AA8" s="8" t="n">
+      <c r="AB8" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="AB8" s="8" t="n">
+      <c r="AC8" s="8" t="n">
         <v>256.4</v>
       </c>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="7" t="n">
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH8" s="7" t="n">
         <v>43132</v>
       </c>
-      <c r="AG8" s="8" t="n">
+      <c r="AI8" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="AH8" s="3" t="s">
+      <c r="AJ8" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="AK8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="n">
@@ -2040,61 +2246,68 @@
         <v>1</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="P9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="R9" s="3" t="n">
+      <c r="S9" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="S9" s="10" t="n">
+      <c r="T9" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="T9" s="10" t="n">
+      <c r="U9" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="U9" s="8" t="n">
+      <c r="V9" s="8" t="n">
         <v>300</v>
       </c>
-      <c r="V9" s="9" t="n">
+      <c r="W9" s="9" t="n">
         <v>0.038</v>
       </c>
-      <c r="W9" s="8" t="n">
+      <c r="X9" s="8" t="n">
         <v>11.4</v>
       </c>
-      <c r="X9" s="8" t="n">
+      <c r="Y9" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="Y9" s="8" t="n">
+      <c r="Z9" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="Z9" s="8" t="n">
+      <c r="AA9" s="8" t="n">
         <v>356.4</v>
       </c>
-      <c r="AA9" s="8" t="n">
+      <c r="AB9" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="AB9" s="8" t="n">
+      <c r="AC9" s="8" t="n">
         <v>256.4</v>
       </c>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF9" s="7" t="n">
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH9" s="7" t="n">
         <v>43101</v>
       </c>
-      <c r="AG9" s="8" t="n">
+      <c r="AI9" s="8" t="n">
         <v>250</v>
       </c>
-      <c r="AH9" s="3" t="s">
+      <c r="AJ9" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="AK9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="n">
@@ -2138,53 +2351,58 @@
         <v>1</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="P10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="R10" s="3" t="n">
+      <c r="S10" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="S10" s="10" t="n">
+      <c r="T10" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="T10" s="10" t="n">
+      <c r="U10" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="U10" s="8" t="n">
+      <c r="V10" s="8" t="n">
         <v>300</v>
       </c>
-      <c r="V10" s="9" t="n">
+      <c r="W10" s="9" t="n">
         <v>0.038</v>
       </c>
-      <c r="W10" s="8" t="n">
+      <c r="X10" s="8" t="n">
         <v>11.4</v>
       </c>
-      <c r="X10" s="8" t="n">
+      <c r="Y10" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="Y10" s="8" t="n">
+      <c r="Z10" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="Z10" s="8" t="n">
+      <c r="AA10" s="8" t="n">
         <v>356.4</v>
       </c>
-      <c r="AA10" s="8" t="n">
+      <c r="AB10" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="AB10" s="8" t="n">
+      <c r="AC10" s="8" t="n">
         <v>256.4</v>
       </c>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
-      <c r="AG10" s="11"/>
-      <c r="AH10" s="11"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="n">
@@ -2228,3055 +2446,3062 @@
         <v>1</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="P11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="R11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="R11" s="3" t="n">
+      <c r="S11" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="S11" s="10" t="n">
+      <c r="T11" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="T11" s="10" t="n">
+      <c r="U11" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="U11" s="8" t="n">
+      <c r="V11" s="8" t="n">
         <v>300</v>
       </c>
-      <c r="V11" s="9" t="n">
+      <c r="W11" s="9" t="n">
         <v>0.038</v>
       </c>
-      <c r="W11" s="8" t="n">
+      <c r="X11" s="8" t="n">
         <v>11.4</v>
       </c>
-      <c r="X11" s="8" t="n">
+      <c r="Y11" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="Y11" s="8" t="n">
+      <c r="Z11" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="Z11" s="8" t="n">
+      <c r="AA11" s="8" t="n">
         <v>356.4</v>
       </c>
-      <c r="AA11" s="8" t="n">
+      <c r="AB11" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="AB11" s="8" t="n">
+      <c r="AC11" s="8" t="n">
         <v>256.4</v>
       </c>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="11"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="6"/>
       <c r="AF11" s="11"/>
       <c r="AG11" s="11"/>
       <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD26" s="6"/>
+      <c r="AE26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD27" s="6"/>
+      <c r="AE27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD28" s="6"/>
+      <c r="AE28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD32" s="6"/>
+      <c r="AE32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD33" s="6"/>
+      <c r="AE33" s="6"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD34" s="6"/>
+      <c r="AE34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD35" s="6"/>
+      <c r="AE35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD36" s="6"/>
+      <c r="AE36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD37" s="6"/>
+      <c r="AE37" s="6"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD38" s="6"/>
+      <c r="AE38" s="6"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD39" s="6"/>
+      <c r="AE39" s="6"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD40" s="6"/>
+      <c r="AE40" s="6"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD41" s="6"/>
+      <c r="AE41" s="6"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD42" s="6"/>
+      <c r="AE42" s="6"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD43" s="6"/>
+      <c r="AE43" s="6"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD44" s="6"/>
+      <c r="AE44" s="6"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD45" s="6"/>
+      <c r="AE45" s="6"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD46" s="6"/>
+      <c r="AE46" s="6"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD47" s="6"/>
+      <c r="AE47" s="6"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD48" s="6"/>
+      <c r="AE48" s="6"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD49" s="6"/>
+      <c r="AE49" s="6"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD50" s="6"/>
+      <c r="AE50" s="6"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD51" s="6"/>
+      <c r="AE51" s="6"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD52" s="6"/>
+      <c r="AE52" s="6"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD53" s="6"/>
+      <c r="AE53" s="6"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD54" s="6"/>
+      <c r="AE54" s="6"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD55" s="6"/>
+      <c r="AE55" s="6"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD56" s="6"/>
+      <c r="AE56" s="6"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD57" s="6"/>
+      <c r="AE57" s="6"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD58" s="6"/>
+      <c r="AE58" s="6"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD59" s="6"/>
+      <c r="AE59" s="6"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD60" s="6"/>
+      <c r="AE60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD61" s="6"/>
+      <c r="AE61" s="6"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD62" s="6"/>
+      <c r="AE62" s="6"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD63" s="6"/>
+      <c r="AE63" s="6"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD64" s="6"/>
+      <c r="AE64" s="6"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD65" s="6"/>
+      <c r="AE65" s="6"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD66" s="6"/>
+      <c r="AE66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD67" s="6"/>
+      <c r="AE67" s="6"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD68" s="6"/>
+      <c r="AE68" s="6"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD69" s="6"/>
+      <c r="AE69" s="6"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD70" s="6"/>
+      <c r="AE70" s="6"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD71" s="6"/>
+      <c r="AE71" s="6"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD72" s="6"/>
+      <c r="AE72" s="6"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD73" s="6"/>
+      <c r="AE73" s="6"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD74" s="6"/>
+      <c r="AE74" s="6"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD75" s="6"/>
+      <c r="AE75" s="6"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD76" s="6"/>
+      <c r="AE76" s="6"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD77" s="6"/>
+      <c r="AE77" s="6"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD78" s="6"/>
+      <c r="AE78" s="6"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD79" s="6"/>
+      <c r="AE79" s="6"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD80" s="6"/>
+      <c r="AE80" s="6"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD81" s="6"/>
+      <c r="AE81" s="6"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD82" s="6"/>
+      <c r="AE82" s="6"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD83" s="6"/>
+      <c r="AE83" s="6"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD84" s="6"/>
+      <c r="AE84" s="6"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD85" s="6"/>
+      <c r="AE85" s="6"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD86" s="6"/>
+      <c r="AE86" s="6"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD87" s="6"/>
+      <c r="AE87" s="6"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD88" s="6"/>
+      <c r="AE88" s="6"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD89" s="6"/>
+      <c r="AE89" s="6"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD90" s="6"/>
+      <c r="AE90" s="6"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD91" s="6"/>
+      <c r="AE91" s="6"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD92" s="6"/>
+      <c r="AE92" s="6"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD93" s="6"/>
+      <c r="AE93" s="6"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD94" s="6"/>
+      <c r="AE94" s="6"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD95" s="6"/>
+      <c r="AE95" s="6"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD96" s="6"/>
+      <c r="AE96" s="6"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD97" s="6"/>
+      <c r="AE97" s="6"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD98" s="6"/>
+      <c r="AE98" s="6"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD99" s="6"/>
+      <c r="AE99" s="6"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD100" s="6"/>
+      <c r="AE100" s="6"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD101" s="6"/>
+      <c r="AE101" s="6"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD102" s="6"/>
+      <c r="AE102" s="6"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD103" s="6"/>
+      <c r="AE103" s="6"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD104" s="6"/>
+      <c r="AE104" s="6"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD105" s="6"/>
+      <c r="AE105" s="6"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD106" s="6"/>
+      <c r="AE106" s="6"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD107" s="6"/>
+      <c r="AE107" s="6"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD108" s="6"/>
+      <c r="AE108" s="6"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD109" s="6"/>
+      <c r="AE109" s="6"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD110" s="6"/>
+      <c r="AE110" s="6"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD111" s="6"/>
+      <c r="AE111" s="6"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD112" s="6"/>
+      <c r="AE112" s="6"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD113" s="6"/>
+      <c r="AE113" s="6"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD114" s="6"/>
+      <c r="AE114" s="6"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD115" s="6"/>
+      <c r="AE115" s="6"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD116" s="6"/>
+      <c r="AE116" s="6"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD117" s="6"/>
+      <c r="AE117" s="6"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD118" s="6"/>
+      <c r="AE118" s="6"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD119" s="6"/>
+      <c r="AE119" s="6"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD120" s="6"/>
+      <c r="AE120" s="6"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD121" s="6"/>
+      <c r="AE121" s="6"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD122" s="6"/>
+      <c r="AE122" s="6"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD123" s="6"/>
+      <c r="AE123" s="6"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD124" s="6"/>
+      <c r="AE124" s="6"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD125" s="6"/>
+      <c r="AE125" s="6"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD126" s="6"/>
+      <c r="AE126" s="6"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD127" s="6"/>
+      <c r="AE127" s="6"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD128" s="6"/>
+      <c r="AE128" s="6"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD129" s="6"/>
+      <c r="AE129" s="6"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD130" s="6"/>
+      <c r="AE130" s="6"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD131" s="6"/>
+      <c r="AE131" s="6"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD132" s="6"/>
+      <c r="AE132" s="6"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD133" s="6"/>
+      <c r="AE133" s="6"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD134" s="6"/>
+      <c r="AE134" s="6"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD135" s="6"/>
+      <c r="AE135" s="6"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD136" s="6"/>
+      <c r="AE136" s="6"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD137" s="6"/>
+      <c r="AE137" s="6"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD138" s="6"/>
+      <c r="AE138" s="6"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD139" s="6"/>
+      <c r="AE139" s="6"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD140" s="6"/>
+      <c r="AE140" s="6"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD141" s="6"/>
+      <c r="AE141" s="6"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD142" s="6"/>
+      <c r="AE142" s="6"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD143" s="6"/>
+      <c r="AE143" s="6"/>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD144" s="6"/>
+      <c r="AE144" s="6"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD145" s="6"/>
+      <c r="AE145" s="6"/>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD146" s="6"/>
+      <c r="AE146" s="6"/>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD147" s="6"/>
+      <c r="AE147" s="6"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD148" s="6"/>
+      <c r="AE148" s="6"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD149" s="6"/>
+      <c r="AE149" s="6"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD150" s="6"/>
+      <c r="AE150" s="6"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD151" s="6"/>
+      <c r="AE151" s="6"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD152" s="6"/>
+      <c r="AE152" s="6"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD153" s="6"/>
+      <c r="AE153" s="6"/>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD154" s="6"/>
+      <c r="AE154" s="6"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD155" s="6"/>
+      <c r="AE155" s="6"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD156" s="6"/>
+      <c r="AE156" s="6"/>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD157" s="6"/>
+      <c r="AE157" s="6"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD158" s="6"/>
+      <c r="AE158" s="6"/>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD159" s="6"/>
+      <c r="AE159" s="6"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD160" s="6"/>
+      <c r="AE160" s="6"/>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD161" s="6"/>
+      <c r="AE161" s="6"/>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD162" s="6"/>
+      <c r="AE162" s="6"/>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD163" s="6"/>
+      <c r="AE163" s="6"/>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD164" s="6"/>
+      <c r="AE164" s="6"/>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD165" s="6"/>
+      <c r="AE165" s="6"/>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD166" s="6"/>
+      <c r="AE166" s="6"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD167" s="6"/>
+      <c r="AE167" s="6"/>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD168" s="6"/>
+      <c r="AE168" s="6"/>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD169" s="6"/>
+      <c r="AE169" s="6"/>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD170" s="6"/>
+      <c r="AE170" s="6"/>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD171" s="6"/>
+      <c r="AE171" s="6"/>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD172" s="6"/>
+      <c r="AE172" s="6"/>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD173" s="6"/>
+      <c r="AE173" s="6"/>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD174" s="6"/>
+      <c r="AE174" s="6"/>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD175" s="6"/>
+      <c r="AE175" s="6"/>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD176" s="6"/>
+      <c r="AE176" s="6"/>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD177" s="6"/>
+      <c r="AE177" s="6"/>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD178" s="6"/>
+      <c r="AE178" s="6"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD179" s="6"/>
+      <c r="AE179" s="6"/>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD180" s="6"/>
+      <c r="AE180" s="6"/>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD181" s="6"/>
+      <c r="AE181" s="6"/>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD182" s="6"/>
+      <c r="AE182" s="6"/>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD183" s="6"/>
+      <c r="AE183" s="6"/>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD184" s="6"/>
+      <c r="AE184" s="6"/>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD185" s="6"/>
+      <c r="AE185" s="6"/>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD186" s="6"/>
+      <c r="AE186" s="6"/>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD187" s="6"/>
+      <c r="AE187" s="6"/>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD188" s="6"/>
+      <c r="AE188" s="6"/>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD189" s="6"/>
+      <c r="AE189" s="6"/>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD190" s="6"/>
+      <c r="AE190" s="6"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD191" s="6"/>
+      <c r="AE191" s="6"/>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD192" s="6"/>
+      <c r="AE192" s="6"/>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD193" s="6"/>
+      <c r="AE193" s="6"/>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD194" s="6"/>
+      <c r="AE194" s="6"/>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD195" s="6"/>
+      <c r="AE195" s="6"/>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD196" s="6"/>
+      <c r="AE196" s="6"/>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD197" s="6"/>
+      <c r="AE197" s="6"/>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD198" s="6"/>
+      <c r="AE198" s="6"/>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD199" s="6"/>
+      <c r="AE199" s="6"/>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD200" s="6"/>
+      <c r="AE200" s="6"/>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD201" s="6"/>
+      <c r="AE201" s="6"/>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD202" s="6"/>
+      <c r="AE202" s="6"/>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD203" s="6"/>
+      <c r="AE203" s="6"/>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD204" s="6"/>
+      <c r="AE204" s="6"/>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD205" s="6"/>
+      <c r="AE205" s="6"/>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD206" s="6"/>
+      <c r="AE206" s="6"/>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD207" s="6"/>
+      <c r="AE207" s="6"/>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD208" s="6"/>
+      <c r="AE208" s="6"/>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD209" s="6"/>
+      <c r="AE209" s="6"/>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD210" s="6"/>
+      <c r="AE210" s="6"/>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD211" s="6"/>
+      <c r="AE211" s="6"/>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD212" s="6"/>
+      <c r="AE212" s="6"/>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD213" s="6"/>
+      <c r="AE213" s="6"/>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD214" s="6"/>
+      <c r="AE214" s="6"/>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD215" s="6"/>
+      <c r="AE215" s="6"/>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD216" s="6"/>
+      <c r="AE216" s="6"/>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD217" s="6"/>
+      <c r="AE217" s="6"/>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD218" s="6"/>
+      <c r="AE218" s="6"/>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD219" s="6"/>
+      <c r="AE219" s="6"/>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD220" s="6"/>
+      <c r="AE220" s="6"/>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD221" s="6"/>
+      <c r="AE221" s="6"/>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD222" s="6"/>
+      <c r="AE222" s="6"/>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD223" s="6"/>
+      <c r="AE223" s="6"/>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD224" s="6"/>
+      <c r="AE224" s="6"/>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD225" s="6"/>
+      <c r="AE225" s="6"/>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD226" s="6"/>
+      <c r="AE226" s="6"/>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD227" s="6"/>
+      <c r="AE227" s="6"/>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD228" s="6"/>
+      <c r="AE228" s="6"/>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD229" s="6"/>
+      <c r="AE229" s="6"/>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD230" s="6"/>
+      <c r="AE230" s="6"/>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD231" s="6"/>
+      <c r="AE231" s="6"/>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD232" s="6"/>
+      <c r="AE232" s="6"/>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD233" s="6"/>
+      <c r="AE233" s="6"/>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD234" s="6"/>
+      <c r="AE234" s="6"/>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD235" s="6"/>
+      <c r="AE235" s="6"/>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD236" s="6"/>
+      <c r="AE236" s="6"/>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD237" s="6"/>
+      <c r="AE237" s="6"/>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD238" s="6"/>
+      <c r="AE238" s="6"/>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD239" s="6"/>
+      <c r="AE239" s="6"/>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD240" s="6"/>
+      <c r="AE240" s="6"/>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD241" s="6"/>
+      <c r="AE241" s="6"/>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD242" s="6"/>
+      <c r="AE242" s="6"/>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD243" s="6"/>
+      <c r="AE243" s="6"/>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD244" s="6"/>
+      <c r="AE244" s="6"/>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD245" s="6"/>
+      <c r="AE245" s="6"/>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD246" s="6"/>
+      <c r="AE246" s="6"/>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD247" s="6"/>
+      <c r="AE247" s="6"/>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD248" s="6"/>
+      <c r="AE248" s="6"/>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD249" s="6"/>
+      <c r="AE249" s="6"/>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD250" s="6"/>
+      <c r="AE250" s="6"/>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD251" s="6"/>
+      <c r="AE251" s="6"/>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD252" s="6"/>
+      <c r="AE252" s="6"/>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD253" s="6"/>
+      <c r="AE253" s="6"/>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD254" s="6"/>
+      <c r="AE254" s="6"/>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD255" s="6"/>
+      <c r="AE255" s="6"/>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD256" s="6"/>
+      <c r="AE256" s="6"/>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD257" s="6"/>
+      <c r="AE257" s="6"/>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD258" s="6"/>
+      <c r="AE258" s="6"/>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD259" s="6"/>
+      <c r="AE259" s="6"/>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD260" s="6"/>
+      <c r="AE260" s="6"/>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD261" s="6"/>
+      <c r="AE261" s="6"/>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD262" s="6"/>
+      <c r="AE262" s="6"/>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD263" s="6"/>
+      <c r="AE263" s="6"/>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD264" s="6"/>
+      <c r="AE264" s="6"/>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD265" s="6"/>
+      <c r="AE265" s="6"/>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD266" s="6"/>
+      <c r="AE266" s="6"/>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD267" s="6"/>
+      <c r="AE267" s="6"/>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD268" s="6"/>
+      <c r="AE268" s="6"/>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD269" s="6"/>
+      <c r="AE269" s="6"/>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD270" s="6"/>
+      <c r="AE270" s="6"/>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD271" s="6"/>
+      <c r="AE271" s="6"/>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD272" s="6"/>
+      <c r="AE272" s="6"/>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD273" s="6"/>
+      <c r="AE273" s="6"/>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD274" s="6"/>
+      <c r="AE274" s="6"/>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD275" s="6"/>
+      <c r="AE275" s="6"/>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD276" s="6"/>
+      <c r="AE276" s="6"/>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD277" s="6"/>
+      <c r="AE277" s="6"/>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD278" s="6"/>
+      <c r="AE278" s="6"/>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD279" s="6"/>
+      <c r="AE279" s="6"/>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD280" s="6"/>
+      <c r="AE280" s="6"/>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD281" s="6"/>
+      <c r="AE281" s="6"/>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD282" s="6"/>
+      <c r="AE282" s="6"/>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD283" s="6"/>
+      <c r="AE283" s="6"/>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD284" s="6"/>
+      <c r="AE284" s="6"/>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD285" s="6"/>
+      <c r="AE285" s="6"/>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD286" s="6"/>
+      <c r="AE286" s="6"/>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD287" s="6"/>
+      <c r="AE287" s="6"/>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD288" s="6"/>
+      <c r="AE288" s="6"/>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD289" s="6"/>
+      <c r="AE289" s="6"/>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD290" s="6"/>
+      <c r="AE290" s="6"/>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD291" s="6"/>
+      <c r="AE291" s="6"/>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD292" s="6"/>
+      <c r="AE292" s="6"/>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD293" s="6"/>
+      <c r="AE293" s="6"/>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD294" s="6"/>
+      <c r="AE294" s="6"/>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD295" s="6"/>
+      <c r="AE295" s="6"/>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD296" s="6"/>
+      <c r="AE296" s="6"/>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD297" s="6"/>
+      <c r="AE297" s="6"/>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD298" s="6"/>
+      <c r="AE298" s="6"/>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD299" s="6"/>
+      <c r="AE299" s="6"/>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD300" s="6"/>
+      <c r="AE300" s="6"/>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD301" s="6"/>
+      <c r="AE301" s="6"/>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD302" s="6"/>
+      <c r="AE302" s="6"/>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD303" s="6"/>
+      <c r="AE303" s="6"/>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD304" s="6"/>
+      <c r="AE304" s="6"/>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD305" s="6"/>
+      <c r="AE305" s="6"/>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD306" s="6"/>
+      <c r="AE306" s="6"/>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD307" s="6"/>
+      <c r="AE307" s="6"/>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD308" s="6"/>
+      <c r="AE308" s="6"/>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD309" s="6"/>
+      <c r="AE309" s="6"/>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD310" s="6"/>
+      <c r="AE310" s="6"/>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD311" s="6"/>
+      <c r="AE311" s="6"/>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD312" s="6"/>
+      <c r="AE312" s="6"/>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD313" s="6"/>
+      <c r="AE313" s="6"/>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD314" s="6"/>
+      <c r="AE314" s="6"/>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD315" s="6"/>
+      <c r="AE315" s="6"/>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD316" s="6"/>
+      <c r="AE316" s="6"/>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD317" s="6"/>
+      <c r="AE317" s="6"/>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD318" s="6"/>
+      <c r="AE318" s="6"/>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD319" s="6"/>
+      <c r="AE319" s="6"/>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD320" s="6"/>
+      <c r="AE320" s="6"/>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD321" s="6"/>
+      <c r="AE321" s="6"/>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD322" s="6"/>
+      <c r="AE322" s="6"/>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD323" s="6"/>
+      <c r="AE323" s="6"/>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD324" s="6"/>
+      <c r="AE324" s="6"/>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD325" s="6"/>
+      <c r="AE325" s="6"/>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD326" s="6"/>
+      <c r="AE326" s="6"/>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD327" s="6"/>
+      <c r="AE327" s="6"/>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD328" s="6"/>
+      <c r="AE328" s="6"/>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD329" s="6"/>
+      <c r="AE329" s="6"/>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD330" s="6"/>
+      <c r="AE330" s="6"/>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD331" s="6"/>
+      <c r="AE331" s="6"/>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD332" s="6"/>
+      <c r="AE332" s="6"/>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD333" s="6"/>
+      <c r="AE333" s="6"/>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD334" s="6"/>
+      <c r="AE334" s="6"/>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD335" s="6"/>
+      <c r="AE335" s="6"/>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD336" s="6"/>
+      <c r="AE336" s="6"/>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD337" s="6"/>
+      <c r="AE337" s="6"/>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD338" s="6"/>
+      <c r="AE338" s="6"/>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD339" s="6"/>
+      <c r="AE339" s="6"/>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD340" s="6"/>
+      <c r="AE340" s="6"/>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD341" s="6"/>
+      <c r="AE341" s="6"/>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD342" s="6"/>
+      <c r="AE342" s="6"/>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD343" s="6"/>
+      <c r="AE343" s="6"/>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD344" s="6"/>
+      <c r="AE344" s="6"/>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD345" s="6"/>
+      <c r="AE345" s="6"/>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD346" s="6"/>
+      <c r="AE346" s="6"/>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD347" s="6"/>
+      <c r="AE347" s="6"/>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD348" s="6"/>
+      <c r="AE348" s="6"/>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD349" s="6"/>
+      <c r="AE349" s="6"/>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD350" s="6"/>
+      <c r="AE350" s="6"/>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD351" s="6"/>
+      <c r="AE351" s="6"/>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD352" s="6"/>
+      <c r="AE352" s="6"/>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD353" s="6"/>
+      <c r="AE353" s="6"/>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD354" s="6"/>
+      <c r="AE354" s="6"/>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD355" s="6"/>
+      <c r="AE355" s="6"/>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD356" s="6"/>
+      <c r="AE356" s="6"/>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD357" s="6"/>
+      <c r="AE357" s="6"/>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD358" s="6"/>
+      <c r="AE358" s="6"/>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD359" s="6"/>
+      <c r="AE359" s="6"/>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD360" s="6"/>
+      <c r="AE360" s="6"/>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD361" s="6"/>
+      <c r="AE361" s="6"/>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD362" s="6"/>
+      <c r="AE362" s="6"/>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD363" s="6"/>
+      <c r="AE363" s="6"/>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD364" s="6"/>
+      <c r="AE364" s="6"/>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD365" s="6"/>
+      <c r="AE365" s="6"/>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD366" s="6"/>
+      <c r="AE366" s="6"/>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD367" s="6"/>
+      <c r="AE367" s="6"/>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD368" s="6"/>
+      <c r="AE368" s="6"/>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD369" s="6"/>
+      <c r="AE369" s="6"/>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD370" s="6"/>
+      <c r="AE370" s="6"/>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD371" s="6"/>
+      <c r="AE371" s="6"/>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD372" s="6"/>
+      <c r="AE372" s="6"/>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD373" s="6"/>
+      <c r="AE373" s="6"/>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD374" s="6"/>
+      <c r="AE374" s="6"/>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD375" s="6"/>
+      <c r="AE375" s="6"/>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD376" s="6"/>
+      <c r="AE376" s="6"/>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD377" s="6"/>
+      <c r="AE377" s="6"/>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD378" s="6"/>
+      <c r="AE378" s="6"/>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD379" s="6"/>
+      <c r="AE379" s="6"/>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD380" s="6"/>
+      <c r="AE380" s="6"/>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD381" s="6"/>
+      <c r="AE381" s="6"/>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD382" s="6"/>
+      <c r="AE382" s="6"/>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD383" s="6"/>
+      <c r="AE383" s="6"/>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD384" s="6"/>
+      <c r="AE384" s="6"/>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD385" s="6"/>
+      <c r="AE385" s="6"/>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD386" s="6"/>
+      <c r="AE386" s="6"/>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD387" s="6"/>
+      <c r="AE387" s="6"/>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD388" s="6"/>
+      <c r="AE388" s="6"/>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD389" s="6"/>
+      <c r="AE389" s="6"/>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD390" s="6"/>
+      <c r="AE390" s="6"/>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD391" s="6"/>
+      <c r="AE391" s="6"/>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD392" s="6"/>
+      <c r="AE392" s="6"/>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD393" s="6"/>
+      <c r="AE393" s="6"/>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD394" s="6"/>
+      <c r="AE394" s="6"/>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD395" s="6"/>
+      <c r="AE395" s="6"/>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD396" s="6"/>
+      <c r="AE396" s="6"/>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD397" s="6"/>
+      <c r="AE397" s="6"/>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD398" s="6"/>
+      <c r="AE398" s="6"/>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD399" s="6"/>
+      <c r="AE399" s="6"/>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD400" s="6"/>
+      <c r="AE400" s="6"/>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD401" s="6"/>
+      <c r="AE401" s="6"/>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD402" s="6"/>
+      <c r="AE402" s="6"/>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD403" s="6"/>
+      <c r="AE403" s="6"/>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD404" s="6"/>
+      <c r="AE404" s="6"/>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD405" s="6"/>
+      <c r="AE405" s="6"/>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD406" s="6"/>
+      <c r="AE406" s="6"/>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD407" s="6"/>
+      <c r="AE407" s="6"/>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD408" s="6"/>
+      <c r="AE408" s="6"/>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD409" s="6"/>
+      <c r="AE409" s="6"/>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD410" s="6"/>
+      <c r="AE410" s="6"/>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD411" s="6"/>
+      <c r="AE411" s="6"/>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD412" s="6"/>
+      <c r="AE412" s="6"/>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD413" s="6"/>
+      <c r="AE413" s="6"/>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD414" s="6"/>
+      <c r="AE414" s="6"/>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD415" s="6"/>
+      <c r="AE415" s="6"/>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD416" s="6"/>
+      <c r="AE416" s="6"/>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD417" s="6"/>
+      <c r="AE417" s="6"/>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD418" s="6"/>
+      <c r="AE418" s="6"/>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD419" s="6"/>
+      <c r="AE419" s="6"/>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD420" s="6"/>
+      <c r="AE420" s="6"/>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD421" s="6"/>
+      <c r="AE421" s="6"/>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD422" s="6"/>
+      <c r="AE422" s="6"/>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD423" s="6"/>
+      <c r="AE423" s="6"/>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD424" s="6"/>
+      <c r="AE424" s="6"/>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD425" s="6"/>
+      <c r="AE425" s="6"/>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD426" s="6"/>
+      <c r="AE426" s="6"/>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD427" s="6"/>
+      <c r="AE427" s="6"/>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD428" s="6"/>
+      <c r="AE428" s="6"/>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD429" s="6"/>
+      <c r="AE429" s="6"/>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD430" s="6"/>
+      <c r="AE430" s="6"/>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD431" s="6"/>
+      <c r="AE431" s="6"/>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD432" s="6"/>
+      <c r="AE432" s="6"/>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD433" s="6"/>
+      <c r="AE433" s="6"/>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD434" s="6"/>
+      <c r="AE434" s="6"/>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD435" s="6"/>
+      <c r="AE435" s="6"/>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD436" s="6"/>
+      <c r="AE436" s="6"/>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD437" s="6"/>
+      <c r="AE437" s="6"/>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD438" s="6"/>
+      <c r="AE438" s="6"/>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD439" s="6"/>
+      <c r="AE439" s="6"/>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD440" s="6"/>
+      <c r="AE440" s="6"/>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD441" s="6"/>
+      <c r="AE441" s="6"/>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD442" s="6"/>
+      <c r="AE442" s="6"/>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD443" s="6"/>
+      <c r="AE443" s="6"/>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD444" s="6"/>
+      <c r="AE444" s="6"/>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD445" s="6"/>
+      <c r="AE445" s="6"/>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD446" s="6"/>
+      <c r="AE446" s="6"/>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD447" s="6"/>
+      <c r="AE447" s="6"/>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD448" s="6"/>
+      <c r="AE448" s="6"/>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD449" s="6"/>
+      <c r="AE449" s="6"/>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD450" s="6"/>
+      <c r="AE450" s="6"/>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD451" s="6"/>
+      <c r="AE451" s="6"/>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD452" s="6"/>
+      <c r="AE452" s="6"/>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD453" s="6"/>
+      <c r="AE453" s="6"/>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD454" s="6"/>
+      <c r="AE454" s="6"/>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD455" s="6"/>
+      <c r="AE455" s="6"/>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD456" s="6"/>
+      <c r="AE456" s="6"/>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD457" s="6"/>
+      <c r="AE457" s="6"/>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD458" s="6"/>
+      <c r="AE458" s="6"/>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD459" s="6"/>
+      <c r="AE459" s="6"/>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD460" s="6"/>
+      <c r="AE460" s="6"/>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD461" s="6"/>
+      <c r="AE461" s="6"/>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD462" s="6"/>
+      <c r="AE462" s="6"/>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD463" s="6"/>
+      <c r="AE463" s="6"/>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD464" s="6"/>
+      <c r="AE464" s="6"/>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD465" s="6"/>
+      <c r="AE465" s="6"/>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD466" s="6"/>
+      <c r="AE466" s="6"/>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD467" s="6"/>
+      <c r="AE467" s="6"/>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD468" s="6"/>
+      <c r="AE468" s="6"/>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD469" s="6"/>
+      <c r="AE469" s="6"/>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD470" s="6"/>
+      <c r="AE470" s="6"/>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD471" s="6"/>
+      <c r="AE471" s="6"/>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD472" s="6"/>
+      <c r="AE472" s="6"/>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD473" s="6"/>
+      <c r="AE473" s="6"/>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD474" s="6"/>
+      <c r="AE474" s="6"/>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD475" s="6"/>
+      <c r="AE475" s="6"/>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD476" s="6"/>
+      <c r="AE476" s="6"/>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD477" s="6"/>
+      <c r="AE477" s="6"/>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD478" s="6"/>
+      <c r="AE478" s="6"/>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD479" s="6"/>
+      <c r="AE479" s="6"/>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD480" s="6"/>
+      <c r="AE480" s="6"/>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD481" s="6"/>
+      <c r="AE481" s="6"/>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD482" s="6"/>
+      <c r="AE482" s="6"/>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD483" s="6"/>
+      <c r="AE483" s="6"/>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD484" s="6"/>
+      <c r="AE484" s="6"/>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD485" s="6"/>
+      <c r="AE485" s="6"/>
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD486" s="6"/>
+      <c r="AE486" s="6"/>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD487" s="6"/>
+      <c r="AE487" s="6"/>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD488" s="6"/>
+      <c r="AE488" s="6"/>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD489" s="6"/>
+      <c r="AE489" s="6"/>
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD490" s="6"/>
+      <c r="AE490" s="6"/>
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD491" s="6"/>
+      <c r="AE491" s="6"/>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD492" s="6"/>
+      <c r="AE492" s="6"/>
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD493" s="6"/>
+      <c r="AE493" s="6"/>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD494" s="6"/>
+      <c r="AE494" s="6"/>
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD495" s="6"/>
+      <c r="AE495" s="6"/>
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD496" s="6"/>
+      <c r="AE496" s="6"/>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD497" s="6"/>
+      <c r="AE497" s="6"/>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD498" s="6"/>
+      <c r="AE498" s="6"/>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD499" s="6"/>
+      <c r="AE499" s="6"/>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD500" s="6"/>
+      <c r="AE500" s="6"/>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD501" s="6"/>
+      <c r="AE501" s="6"/>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD502" s="6"/>
+      <c r="AE502" s="6"/>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD503" s="6"/>
+      <c r="AE503" s="6"/>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD504" s="6"/>
+      <c r="AE504" s="6"/>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD505" s="6"/>
+      <c r="AE505" s="6"/>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD506" s="6"/>
+      <c r="AE506" s="6"/>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD507" s="6"/>
+      <c r="AE507" s="6"/>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD508" s="6"/>
+      <c r="AE508" s="6"/>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD509" s="6"/>
+      <c r="AE509" s="6"/>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD510" s="6"/>
+      <c r="AE510" s="6"/>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD511" s="6"/>
+      <c r="AE511" s="6"/>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD512" s="6"/>
+      <c r="AE512" s="6"/>
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD513" s="6"/>
+      <c r="AE513" s="6"/>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD514" s="6"/>
+      <c r="AE514" s="6"/>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD515" s="6"/>
+      <c r="AE515" s="6"/>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD516" s="6"/>
+      <c r="AE516" s="6"/>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD517" s="6"/>
+      <c r="AE517" s="6"/>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD518" s="6"/>
+      <c r="AE518" s="6"/>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD519" s="6"/>
+      <c r="AE519" s="6"/>
     </row>
     <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD520" s="6"/>
+      <c r="AE520" s="6"/>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD521" s="6"/>
+      <c r="AE521" s="6"/>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD522" s="6"/>
+      <c r="AE522" s="6"/>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD523" s="6"/>
+      <c r="AE523" s="6"/>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD524" s="6"/>
+      <c r="AE524" s="6"/>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD525" s="6"/>
+      <c r="AE525" s="6"/>
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD526" s="6"/>
+      <c r="AE526" s="6"/>
     </row>
     <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD527" s="6"/>
+      <c r="AE527" s="6"/>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD528" s="6"/>
+      <c r="AE528" s="6"/>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD529" s="6"/>
+      <c r="AE529" s="6"/>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD530" s="6"/>
+      <c r="AE530" s="6"/>
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD531" s="6"/>
+      <c r="AE531" s="6"/>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD532" s="6"/>
+      <c r="AE532" s="6"/>
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD533" s="6"/>
+      <c r="AE533" s="6"/>
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD534" s="6"/>
+      <c r="AE534" s="6"/>
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD535" s="6"/>
+      <c r="AE535" s="6"/>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD536" s="6"/>
+      <c r="AE536" s="6"/>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD537" s="6"/>
+      <c r="AE537" s="6"/>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD538" s="6"/>
+      <c r="AE538" s="6"/>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD539" s="6"/>
+      <c r="AE539" s="6"/>
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD540" s="6"/>
+      <c r="AE540" s="6"/>
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD541" s="6"/>
+      <c r="AE541" s="6"/>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD542" s="6"/>
+      <c r="AE542" s="6"/>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD543" s="6"/>
+      <c r="AE543" s="6"/>
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD544" s="6"/>
+      <c r="AE544" s="6"/>
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD545" s="6"/>
+      <c r="AE545" s="6"/>
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD546" s="6"/>
+      <c r="AE546" s="6"/>
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD547" s="6"/>
+      <c r="AE547" s="6"/>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD548" s="6"/>
+      <c r="AE548" s="6"/>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD549" s="6"/>
+      <c r="AE549" s="6"/>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD550" s="6"/>
+      <c r="AE550" s="6"/>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD551" s="6"/>
+      <c r="AE551" s="6"/>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD552" s="6"/>
+      <c r="AE552" s="6"/>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD553" s="6"/>
+      <c r="AE553" s="6"/>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD554" s="6"/>
+      <c r="AE554" s="6"/>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD555" s="6"/>
+      <c r="AE555" s="6"/>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD556" s="6"/>
+      <c r="AE556" s="6"/>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD557" s="6"/>
+      <c r="AE557" s="6"/>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD558" s="6"/>
+      <c r="AE558" s="6"/>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD559" s="6"/>
+      <c r="AE559" s="6"/>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD560" s="6"/>
+      <c r="AE560" s="6"/>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD561" s="6"/>
+      <c r="AE561" s="6"/>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD562" s="6"/>
+      <c r="AE562" s="6"/>
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD563" s="6"/>
+      <c r="AE563" s="6"/>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD564" s="6"/>
+      <c r="AE564" s="6"/>
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD565" s="6"/>
+      <c r="AE565" s="6"/>
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD566" s="6"/>
+      <c r="AE566" s="6"/>
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD567" s="6"/>
+      <c r="AE567" s="6"/>
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD568" s="6"/>
+      <c r="AE568" s="6"/>
     </row>
     <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD569" s="6"/>
+      <c r="AE569" s="6"/>
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD570" s="6"/>
+      <c r="AE570" s="6"/>
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD571" s="6"/>
+      <c r="AE571" s="6"/>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD572" s="6"/>
+      <c r="AE572" s="6"/>
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD573" s="6"/>
+      <c r="AE573" s="6"/>
     </row>
     <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD574" s="6"/>
+      <c r="AE574" s="6"/>
     </row>
     <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD575" s="6"/>
+      <c r="AE575" s="6"/>
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD576" s="6"/>
+      <c r="AE576" s="6"/>
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD577" s="6"/>
+      <c r="AE577" s="6"/>
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD578" s="6"/>
+      <c r="AE578" s="6"/>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD579" s="6"/>
+      <c r="AE579" s="6"/>
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD580" s="6"/>
+      <c r="AE580" s="6"/>
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD581" s="6"/>
+      <c r="AE581" s="6"/>
     </row>
     <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD582" s="6"/>
+      <c r="AE582" s="6"/>
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD583" s="6"/>
+      <c r="AE583" s="6"/>
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD584" s="6"/>
+      <c r="AE584" s="6"/>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD585" s="6"/>
+      <c r="AE585" s="6"/>
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD586" s="6"/>
+      <c r="AE586" s="6"/>
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD587" s="6"/>
+      <c r="AE587" s="6"/>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD588" s="6"/>
+      <c r="AE588" s="6"/>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD589" s="6"/>
+      <c r="AE589" s="6"/>
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD590" s="6"/>
+      <c r="AE590" s="6"/>
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD591" s="6"/>
+      <c r="AE591" s="6"/>
     </row>
     <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD592" s="6"/>
+      <c r="AE592" s="6"/>
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD593" s="6"/>
+      <c r="AE593" s="6"/>
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD594" s="6"/>
+      <c r="AE594" s="6"/>
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD595" s="6"/>
+      <c r="AE595" s="6"/>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD596" s="6"/>
+      <c r="AE596" s="6"/>
     </row>
     <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD597" s="6"/>
+      <c r="AE597" s="6"/>
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD598" s="6"/>
+      <c r="AE598" s="6"/>
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD599" s="6"/>
+      <c r="AE599" s="6"/>
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD600" s="6"/>
+      <c r="AE600" s="6"/>
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD601" s="6"/>
+      <c r="AE601" s="6"/>
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD602" s="6"/>
+      <c r="AE602" s="6"/>
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD603" s="6"/>
+      <c r="AE603" s="6"/>
     </row>
     <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD604" s="6"/>
+      <c r="AE604" s="6"/>
     </row>
     <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD605" s="6"/>
+      <c r="AE605" s="6"/>
     </row>
     <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD606" s="6"/>
+      <c r="AE606" s="6"/>
     </row>
     <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD607" s="6"/>
+      <c r="AE607" s="6"/>
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD608" s="6"/>
+      <c r="AE608" s="6"/>
     </row>
     <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD609" s="6"/>
+      <c r="AE609" s="6"/>
     </row>
     <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD610" s="6"/>
+      <c r="AE610" s="6"/>
     </row>
     <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD611" s="6"/>
+      <c r="AE611" s="6"/>
     </row>
     <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD612" s="6"/>
+      <c r="AE612" s="6"/>
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD613" s="6"/>
+      <c r="AE613" s="6"/>
     </row>
     <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD614" s="6"/>
+      <c r="AE614" s="6"/>
     </row>
     <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD615" s="6"/>
+      <c r="AE615" s="6"/>
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD616" s="6"/>
+      <c r="AE616" s="6"/>
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD617" s="6"/>
+      <c r="AE617" s="6"/>
     </row>
     <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD618" s="6"/>
+      <c r="AE618" s="6"/>
     </row>
     <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD619" s="6"/>
+      <c r="AE619" s="6"/>
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD620" s="6"/>
+      <c r="AE620" s="6"/>
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD621" s="6"/>
+      <c r="AE621" s="6"/>
     </row>
     <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD622" s="6"/>
+      <c r="AE622" s="6"/>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD623" s="6"/>
+      <c r="AE623" s="6"/>
     </row>
     <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD624" s="6"/>
+      <c r="AE624" s="6"/>
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD625" s="6"/>
+      <c r="AE625" s="6"/>
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD626" s="6"/>
+      <c r="AE626" s="6"/>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD627" s="6"/>
+      <c r="AE627" s="6"/>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD628" s="6"/>
+      <c r="AE628" s="6"/>
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD629" s="6"/>
+      <c r="AE629" s="6"/>
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD630" s="6"/>
+      <c r="AE630" s="6"/>
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD631" s="6"/>
+      <c r="AE631" s="6"/>
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD632" s="6"/>
+      <c r="AE632" s="6"/>
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD633" s="6"/>
+      <c r="AE633" s="6"/>
     </row>
     <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD634" s="6"/>
+      <c r="AE634" s="6"/>
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD635" s="6"/>
+      <c r="AE635" s="6"/>
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD636" s="6"/>
+      <c r="AE636" s="6"/>
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD637" s="6"/>
+      <c r="AE637" s="6"/>
     </row>
     <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD638" s="6"/>
+      <c r="AE638" s="6"/>
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD639" s="6"/>
+      <c r="AE639" s="6"/>
     </row>
     <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD640" s="6"/>
+      <c r="AE640" s="6"/>
     </row>
     <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD641" s="6"/>
+      <c r="AE641" s="6"/>
     </row>
     <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD642" s="6"/>
+      <c r="AE642" s="6"/>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD643" s="6"/>
+      <c r="AE643" s="6"/>
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD644" s="6"/>
+      <c r="AE644" s="6"/>
     </row>
     <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD645" s="6"/>
+      <c r="AE645" s="6"/>
     </row>
     <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD646" s="6"/>
+      <c r="AE646" s="6"/>
     </row>
     <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD647" s="6"/>
+      <c r="AE647" s="6"/>
     </row>
     <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD648" s="6"/>
+      <c r="AE648" s="6"/>
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD649" s="6"/>
+      <c r="AE649" s="6"/>
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD650" s="6"/>
+      <c r="AE650" s="6"/>
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD651" s="6"/>
+      <c r="AE651" s="6"/>
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD652" s="6"/>
+      <c r="AE652" s="6"/>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD653" s="6"/>
+      <c r="AE653" s="6"/>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD654" s="6"/>
+      <c r="AE654" s="6"/>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD655" s="6"/>
+      <c r="AE655" s="6"/>
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD656" s="6"/>
+      <c r="AE656" s="6"/>
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD657" s="6"/>
+      <c r="AE657" s="6"/>
     </row>
     <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD658" s="6"/>
+      <c r="AE658" s="6"/>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD659" s="6"/>
+      <c r="AE659" s="6"/>
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD660" s="6"/>
+      <c r="AE660" s="6"/>
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD661" s="6"/>
+      <c r="AE661" s="6"/>
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD662" s="6"/>
+      <c r="AE662" s="6"/>
     </row>
     <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD663" s="6"/>
+      <c r="AE663" s="6"/>
     </row>
     <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD664" s="6"/>
+      <c r="AE664" s="6"/>
     </row>
     <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD665" s="6"/>
+      <c r="AE665" s="6"/>
     </row>
     <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD666" s="6"/>
+      <c r="AE666" s="6"/>
     </row>
     <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD667" s="6"/>
+      <c r="AE667" s="6"/>
     </row>
     <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD668" s="6"/>
+      <c r="AE668" s="6"/>
     </row>
     <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD669" s="6"/>
+      <c r="AE669" s="6"/>
     </row>
     <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD670" s="6"/>
+      <c r="AE670" s="6"/>
     </row>
     <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD671" s="6"/>
+      <c r="AE671" s="6"/>
     </row>
     <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD672" s="6"/>
+      <c r="AE672" s="6"/>
     </row>
     <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD673" s="6"/>
+      <c r="AE673" s="6"/>
     </row>
     <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD674" s="6"/>
+      <c r="AE674" s="6"/>
     </row>
     <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD675" s="6"/>
+      <c r="AE675" s="6"/>
     </row>
     <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD676" s="6"/>
+      <c r="AE676" s="6"/>
     </row>
     <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD677" s="6"/>
+      <c r="AE677" s="6"/>
     </row>
     <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD678" s="6"/>
+      <c r="AE678" s="6"/>
     </row>
     <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD679" s="6"/>
+      <c r="AE679" s="6"/>
     </row>
     <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD680" s="6"/>
+      <c r="AE680" s="6"/>
     </row>
     <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD681" s="6"/>
+      <c r="AE681" s="6"/>
     </row>
     <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD682" s="6"/>
+      <c r="AE682" s="6"/>
     </row>
     <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD683" s="6"/>
+      <c r="AE683" s="6"/>
     </row>
     <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD684" s="6"/>
+      <c r="AE684" s="6"/>
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD685" s="6"/>
+      <c r="AE685" s="6"/>
     </row>
     <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD686" s="6"/>
+      <c r="AE686" s="6"/>
     </row>
     <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD687" s="6"/>
+      <c r="AE687" s="6"/>
     </row>
     <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD688" s="6"/>
+      <c r="AE688" s="6"/>
     </row>
     <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD689" s="6"/>
+      <c r="AE689" s="6"/>
     </row>
     <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD690" s="6"/>
+      <c r="AE690" s="6"/>
     </row>
     <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD691" s="6"/>
+      <c r="AE691" s="6"/>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD692" s="6"/>
+      <c r="AE692" s="6"/>
     </row>
     <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD693" s="6"/>
+      <c r="AE693" s="6"/>
     </row>
     <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD694" s="6"/>
+      <c r="AE694" s="6"/>
     </row>
     <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD695" s="6"/>
+      <c r="AE695" s="6"/>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD696" s="6"/>
+      <c r="AE696" s="6"/>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD697" s="6"/>
+      <c r="AE697" s="6"/>
     </row>
     <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD698" s="6"/>
+      <c r="AE698" s="6"/>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD699" s="6"/>
+      <c r="AE699" s="6"/>
     </row>
     <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD700" s="6"/>
+      <c r="AE700" s="6"/>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD701" s="6"/>
+      <c r="AE701" s="6"/>
     </row>
     <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD702" s="6"/>
+      <c r="AE702" s="6"/>
     </row>
     <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD703" s="6"/>
+      <c r="AE703" s="6"/>
     </row>
     <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD704" s="6"/>
+      <c r="AE704" s="6"/>
     </row>
     <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD705" s="6"/>
+      <c r="AE705" s="6"/>
     </row>
     <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD706" s="6"/>
+      <c r="AE706" s="6"/>
     </row>
     <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD707" s="6"/>
+      <c r="AE707" s="6"/>
     </row>
     <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD708" s="6"/>
+      <c r="AE708" s="6"/>
     </row>
     <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD709" s="6"/>
+      <c r="AE709" s="6"/>
     </row>
     <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD710" s="6"/>
+      <c r="AE710" s="6"/>
     </row>
     <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD711" s="6"/>
+      <c r="AE711" s="6"/>
     </row>
     <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD712" s="6"/>
+      <c r="AE712" s="6"/>
     </row>
     <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD713" s="6"/>
+      <c r="AE713" s="6"/>
     </row>
     <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD714" s="6"/>
+      <c r="AE714" s="6"/>
     </row>
     <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD715" s="6"/>
+      <c r="AE715" s="6"/>
     </row>
     <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD716" s="6"/>
+      <c r="AE716" s="6"/>
     </row>
     <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD717" s="6"/>
+      <c r="AE717" s="6"/>
     </row>
     <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD718" s="6"/>
+      <c r="AE718" s="6"/>
     </row>
     <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD719" s="6"/>
+      <c r="AE719" s="6"/>
     </row>
     <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD720" s="6"/>
+      <c r="AE720" s="6"/>
     </row>
     <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD721" s="6"/>
+      <c r="AE721" s="6"/>
     </row>
     <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD722" s="6"/>
+      <c r="AE722" s="6"/>
     </row>
     <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD723" s="6"/>
+      <c r="AE723" s="6"/>
     </row>
     <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD724" s="6"/>
+      <c r="AE724" s="6"/>
     </row>
     <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD725" s="6"/>
+      <c r="AE725" s="6"/>
     </row>
     <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD726" s="6"/>
+      <c r="AE726" s="6"/>
     </row>
     <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD727" s="6"/>
+      <c r="AE727" s="6"/>
     </row>
     <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD728" s="6"/>
+      <c r="AE728" s="6"/>
     </row>
     <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD729" s="6"/>
+      <c r="AE729" s="6"/>
     </row>
     <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD730" s="6"/>
+      <c r="AE730" s="6"/>
     </row>
     <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD731" s="6"/>
+      <c r="AE731" s="6"/>
     </row>
     <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD732" s="6"/>
+      <c r="AE732" s="6"/>
     </row>
     <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD733" s="6"/>
+      <c r="AE733" s="6"/>
     </row>
     <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD734" s="6"/>
+      <c r="AE734" s="6"/>
     </row>
     <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD735" s="6"/>
+      <c r="AE735" s="6"/>
     </row>
     <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD736" s="6"/>
+      <c r="AE736" s="6"/>
     </row>
     <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD737" s="6"/>
+      <c r="AE737" s="6"/>
     </row>
     <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD738" s="6"/>
+      <c r="AE738" s="6"/>
     </row>
     <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD739" s="6"/>
+      <c r="AE739" s="6"/>
     </row>
     <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD740" s="6"/>
+      <c r="AE740" s="6"/>
     </row>
     <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD741" s="6"/>
+      <c r="AE741" s="6"/>
     </row>
     <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD742" s="6"/>
+      <c r="AE742" s="6"/>
     </row>
     <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD743" s="6"/>
+      <c r="AE743" s="6"/>
     </row>
     <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD744" s="6"/>
+      <c r="AE744" s="6"/>
     </row>
     <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD745" s="6"/>
+      <c r="AE745" s="6"/>
     </row>
     <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD746" s="6"/>
+      <c r="AE746" s="6"/>
     </row>
     <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD747" s="6"/>
+      <c r="AE747" s="6"/>
     </row>
     <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD748" s="6"/>
+      <c r="AE748" s="6"/>
     </row>
     <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD749" s="6"/>
+      <c r="AE749" s="6"/>
     </row>
     <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD750" s="6"/>
+      <c r="AE750" s="6"/>
     </row>
     <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD751" s="6"/>
+      <c r="AE751" s="6"/>
     </row>
     <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD752" s="6"/>
+      <c r="AE752" s="6"/>
     </row>
     <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD753" s="6"/>
+      <c r="AE753" s="6"/>
     </row>
     <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD754" s="6"/>
+      <c r="AE754" s="6"/>
     </row>
     <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD755" s="6"/>
+      <c r="AE755" s="6"/>
     </row>
     <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD756" s="6"/>
+      <c r="AE756" s="6"/>
     </row>
     <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD757" s="6"/>
+      <c r="AE757" s="6"/>
     </row>
     <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD758" s="6"/>
+      <c r="AE758" s="6"/>
     </row>
     <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD759" s="6"/>
+      <c r="AE759" s="6"/>
     </row>
     <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD760" s="6"/>
+      <c r="AE760" s="6"/>
     </row>
     <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD761" s="6"/>
+      <c r="AE761" s="6"/>
     </row>
     <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD762" s="6"/>
+      <c r="AE762" s="6"/>
     </row>
     <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD763" s="6"/>
+      <c r="AE763" s="6"/>
     </row>
     <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD764" s="6"/>
+      <c r="AE764" s="6"/>
     </row>
     <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD765" s="6"/>
+      <c r="AE765" s="6"/>
     </row>
     <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD766" s="6"/>
+      <c r="AE766" s="6"/>
     </row>
     <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD767" s="6"/>
+      <c r="AE767" s="6"/>
     </row>
     <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD768" s="6"/>
+      <c r="AE768" s="6"/>
     </row>
     <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD769" s="6"/>
+      <c r="AE769" s="6"/>
     </row>
     <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD770" s="6"/>
+      <c r="AE770" s="6"/>
     </row>
     <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD771" s="6"/>
+      <c r="AE771" s="6"/>
     </row>
     <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD772" s="6"/>
+      <c r="AE772" s="6"/>
     </row>
     <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD773" s="6"/>
+      <c r="AE773" s="6"/>
     </row>
     <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD774" s="6"/>
+      <c r="AE774" s="6"/>
     </row>
     <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD775" s="6"/>
+      <c r="AE775" s="6"/>
     </row>
     <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD776" s="6"/>
+      <c r="AE776" s="6"/>
     </row>
     <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD777" s="6"/>
+      <c r="AE777" s="6"/>
     </row>
     <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD778" s="6"/>
+      <c r="AE778" s="6"/>
     </row>
     <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD779" s="6"/>
+      <c r="AE779" s="6"/>
     </row>
     <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD780" s="6"/>
+      <c r="AE780" s="6"/>
     </row>
     <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD781" s="6"/>
+      <c r="AE781" s="6"/>
     </row>
     <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD782" s="6"/>
+      <c r="AE782" s="6"/>
     </row>
     <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD783" s="6"/>
+      <c r="AE783" s="6"/>
     </row>
     <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD784" s="6"/>
+      <c r="AE784" s="6"/>
     </row>
     <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD785" s="6"/>
+      <c r="AE785" s="6"/>
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD786" s="6"/>
+      <c r="AE786" s="6"/>
     </row>
     <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD787" s="6"/>
+      <c r="AE787" s="6"/>
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD788" s="6"/>
+      <c r="AE788" s="6"/>
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD789" s="6"/>
+      <c r="AE789" s="6"/>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD790" s="6"/>
+      <c r="AE790" s="6"/>
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD791" s="6"/>
+      <c r="AE791" s="6"/>
     </row>
     <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD792" s="6"/>
+      <c r="AE792" s="6"/>
     </row>
     <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD793" s="6"/>
+      <c r="AE793" s="6"/>
     </row>
     <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD794" s="6"/>
+      <c r="AE794" s="6"/>
     </row>
     <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD795" s="6"/>
+      <c r="AE795" s="6"/>
     </row>
     <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD796" s="6"/>
+      <c r="AE796" s="6"/>
     </row>
     <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD797" s="6"/>
+      <c r="AE797" s="6"/>
     </row>
     <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD798" s="6"/>
+      <c r="AE798" s="6"/>
     </row>
     <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD799" s="6"/>
+      <c r="AE799" s="6"/>
     </row>
     <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD800" s="6"/>
+      <c r="AE800" s="6"/>
     </row>
     <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD801" s="6"/>
+      <c r="AE801" s="6"/>
     </row>
     <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD802" s="6"/>
+      <c r="AE802" s="6"/>
     </row>
     <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD803" s="6"/>
+      <c r="AE803" s="6"/>
     </row>
     <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD804" s="6"/>
+      <c r="AE804" s="6"/>
     </row>
     <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD805" s="6"/>
+      <c r="AE805" s="6"/>
     </row>
     <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD806" s="6"/>
+      <c r="AE806" s="6"/>
     </row>
     <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD807" s="6"/>
+      <c r="AE807" s="6"/>
     </row>
     <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD808" s="6"/>
+      <c r="AE808" s="6"/>
     </row>
     <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD809" s="6"/>
+      <c r="AE809" s="6"/>
     </row>
     <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD810" s="6"/>
+      <c r="AE810" s="6"/>
     </row>
     <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD811" s="6"/>
+      <c r="AE811" s="6"/>
     </row>
     <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD812" s="6"/>
+      <c r="AE812" s="6"/>
     </row>
     <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD813" s="6"/>
+      <c r="AE813" s="6"/>
     </row>
     <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD814" s="6"/>
+      <c r="AE814" s="6"/>
     </row>
     <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD815" s="6"/>
+      <c r="AE815" s="6"/>
     </row>
     <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD816" s="6"/>
+      <c r="AE816" s="6"/>
     </row>
     <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD817" s="6"/>
+      <c r="AE817" s="6"/>
     </row>
     <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD818" s="6"/>
+      <c r="AE818" s="6"/>
     </row>
     <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD819" s="6"/>
+      <c r="AE819" s="6"/>
     </row>
     <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD820" s="6"/>
+      <c r="AE820" s="6"/>
     </row>
     <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD821" s="6"/>
+      <c r="AE821" s="6"/>
     </row>
     <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD822" s="6"/>
+      <c r="AE822" s="6"/>
     </row>
     <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD823" s="6"/>
+      <c r="AE823" s="6"/>
     </row>
     <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD824" s="6"/>
+      <c r="AE824" s="6"/>
     </row>
     <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD825" s="6"/>
+      <c r="AE825" s="6"/>
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD826" s="6"/>
+      <c r="AE826" s="6"/>
     </row>
     <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD827" s="6"/>
+      <c r="AE827" s="6"/>
     </row>
     <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD828" s="6"/>
+      <c r="AE828" s="6"/>
     </row>
     <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD829" s="6"/>
+      <c r="AE829" s="6"/>
     </row>
     <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD830" s="6"/>
+      <c r="AE830" s="6"/>
     </row>
     <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD831" s="6"/>
+      <c r="AE831" s="6"/>
     </row>
     <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD832" s="6"/>
+      <c r="AE832" s="6"/>
     </row>
     <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD833" s="6"/>
+      <c r="AE833" s="6"/>
     </row>
     <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD834" s="6"/>
+      <c r="AE834" s="6"/>
     </row>
     <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD835" s="6"/>
+      <c r="AE835" s="6"/>
     </row>
     <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD836" s="6"/>
+      <c r="AE836" s="6"/>
     </row>
     <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD837" s="6"/>
+      <c r="AE837" s="6"/>
     </row>
     <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD838" s="6"/>
+      <c r="AE838" s="6"/>
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD839" s="6"/>
+      <c r="AE839" s="6"/>
     </row>
     <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD840" s="6"/>
+      <c r="AE840" s="6"/>
     </row>
     <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD841" s="6"/>
+      <c r="AE841" s="6"/>
     </row>
     <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD842" s="6"/>
+      <c r="AE842" s="6"/>
     </row>
     <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD843" s="6"/>
+      <c r="AE843" s="6"/>
     </row>
     <row r="844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD844" s="6"/>
+      <c r="AE844" s="6"/>
     </row>
     <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD845" s="6"/>
+      <c r="AE845" s="6"/>
     </row>
     <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD846" s="6"/>
+      <c r="AE846" s="6"/>
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD847" s="6"/>
+      <c r="AE847" s="6"/>
     </row>
     <row r="848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD848" s="6"/>
+      <c r="AE848" s="6"/>
     </row>
     <row r="849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD849" s="6"/>
+      <c r="AE849" s="6"/>
     </row>
     <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD850" s="6"/>
+      <c r="AE850" s="6"/>
     </row>
     <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD851" s="6"/>
+      <c r="AE851" s="6"/>
     </row>
     <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD852" s="6"/>
+      <c r="AE852" s="6"/>
     </row>
     <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD853" s="6"/>
+      <c r="AE853" s="6"/>
     </row>
     <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD854" s="6"/>
+      <c r="AE854" s="6"/>
     </row>
     <row r="855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD855" s="6"/>
+      <c r="AE855" s="6"/>
     </row>
     <row r="856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD856" s="6"/>
+      <c r="AE856" s="6"/>
     </row>
     <row r="857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD857" s="6"/>
+      <c r="AE857" s="6"/>
     </row>
     <row r="858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD858" s="6"/>
+      <c r="AE858" s="6"/>
     </row>
     <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD859" s="6"/>
+      <c r="AE859" s="6"/>
     </row>
     <row r="860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD860" s="6"/>
+      <c r="AE860" s="6"/>
     </row>
     <row r="861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD861" s="6"/>
+      <c r="AE861" s="6"/>
     </row>
     <row r="862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD862" s="6"/>
+      <c r="AE862" s="6"/>
     </row>
     <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD863" s="6"/>
+      <c r="AE863" s="6"/>
     </row>
     <row r="864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD864" s="6"/>
+      <c r="AE864" s="6"/>
     </row>
     <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD865" s="6"/>
+      <c r="AE865" s="6"/>
     </row>
     <row r="866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD866" s="6"/>
+      <c r="AE866" s="6"/>
     </row>
     <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD867" s="6"/>
+      <c r="AE867" s="6"/>
     </row>
     <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD868" s="6"/>
+      <c r="AE868" s="6"/>
     </row>
     <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD869" s="6"/>
+      <c r="AE869" s="6"/>
     </row>
     <row r="870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD870" s="6"/>
+      <c r="AE870" s="6"/>
     </row>
     <row r="871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD871" s="6"/>
+      <c r="AE871" s="6"/>
     </row>
     <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD872" s="6"/>
+      <c r="AE872" s="6"/>
     </row>
     <row r="873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD873" s="6"/>
+      <c r="AE873" s="6"/>
     </row>
     <row r="874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD874" s="6"/>
+      <c r="AE874" s="6"/>
     </row>
     <row r="875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD875" s="6"/>
+      <c r="AE875" s="6"/>
     </row>
     <row r="876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD876" s="6"/>
+      <c r="AE876" s="6"/>
     </row>
     <row r="877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD877" s="6"/>
+      <c r="AE877" s="6"/>
     </row>
     <row r="878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD878" s="6"/>
+      <c r="AE878" s="6"/>
     </row>
     <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD879" s="6"/>
+      <c r="AE879" s="6"/>
     </row>
     <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD880" s="6"/>
+      <c r="AE880" s="6"/>
     </row>
     <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD881" s="6"/>
+      <c r="AE881" s="6"/>
     </row>
     <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD882" s="6"/>
+      <c r="AE882" s="6"/>
     </row>
     <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD883" s="6"/>
+      <c r="AE883" s="6"/>
     </row>
     <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD884" s="6"/>
+      <c r="AE884" s="6"/>
     </row>
     <row r="885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD885" s="6"/>
+      <c r="AE885" s="6"/>
     </row>
     <row r="886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD886" s="6"/>
+      <c r="AE886" s="6"/>
     </row>
     <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD887" s="6"/>
+      <c r="AE887" s="6"/>
     </row>
     <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD888" s="6"/>
+      <c r="AE888" s="6"/>
     </row>
     <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD889" s="6"/>
+      <c r="AE889" s="6"/>
     </row>
     <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD890" s="6"/>
+      <c r="AE890" s="6"/>
     </row>
     <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD891" s="6"/>
+      <c r="AE891" s="6"/>
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD892" s="6"/>
+      <c r="AE892" s="6"/>
     </row>
     <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD893" s="6"/>
+      <c r="AE893" s="6"/>
     </row>
     <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD894" s="6"/>
+      <c r="AE894" s="6"/>
     </row>
     <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD895" s="6"/>
+      <c r="AE895" s="6"/>
     </row>
     <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD896" s="6"/>
+      <c r="AE896" s="6"/>
     </row>
     <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD897" s="6"/>
+      <c r="AE897" s="6"/>
     </row>
     <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD898" s="6"/>
+      <c r="AE898" s="6"/>
     </row>
     <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD899" s="6"/>
+      <c r="AE899" s="6"/>
     </row>
     <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD900" s="6"/>
+      <c r="AE900" s="6"/>
     </row>
     <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD901" s="6"/>
+      <c r="AE901" s="6"/>
     </row>
     <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD902" s="6"/>
+      <c r="AE902" s="6"/>
     </row>
     <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD903" s="6"/>
+      <c r="AE903" s="6"/>
     </row>
     <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD904" s="6"/>
+      <c r="AE904" s="6"/>
     </row>
     <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD905" s="6"/>
+      <c r="AE905" s="6"/>
     </row>
     <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD906" s="6"/>
+      <c r="AE906" s="6"/>
     </row>
     <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD907" s="6"/>
+      <c r="AE907" s="6"/>
     </row>
     <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD908" s="6"/>
+      <c r="AE908" s="6"/>
     </row>
     <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD909" s="6"/>
+      <c r="AE909" s="6"/>
     </row>
     <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD910" s="6"/>
+      <c r="AE910" s="6"/>
     </row>
     <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD911" s="6"/>
+      <c r="AE911" s="6"/>
     </row>
     <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD912" s="6"/>
+      <c r="AE912" s="6"/>
     </row>
     <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD913" s="6"/>
+      <c r="AE913" s="6"/>
     </row>
     <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD914" s="6"/>
+      <c r="AE914" s="6"/>
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD915" s="6"/>
+      <c r="AE915" s="6"/>
     </row>
     <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD916" s="6"/>
+      <c r="AE916" s="6"/>
     </row>
     <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD917" s="6"/>
+      <c r="AE917" s="6"/>
     </row>
     <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD918" s="6"/>
+      <c r="AE918" s="6"/>
     </row>
     <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD919" s="6"/>
+      <c r="AE919" s="6"/>
     </row>
     <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD920" s="6"/>
+      <c r="AE920" s="6"/>
     </row>
     <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD921" s="6"/>
+      <c r="AE921" s="6"/>
     </row>
     <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD922" s="6"/>
+      <c r="AE922" s="6"/>
     </row>
     <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD923" s="6"/>
+      <c r="AE923" s="6"/>
     </row>
     <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD924" s="6"/>
+      <c r="AE924" s="6"/>
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD925" s="6"/>
+      <c r="AE925" s="6"/>
     </row>
     <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD926" s="6"/>
+      <c r="AE926" s="6"/>
     </row>
     <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD927" s="6"/>
+      <c r="AE927" s="6"/>
     </row>
     <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD928" s="6"/>
+      <c r="AE928" s="6"/>
     </row>
     <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD929" s="6"/>
+      <c r="AE929" s="6"/>
     </row>
     <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD930" s="6"/>
+      <c r="AE930" s="6"/>
     </row>
     <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD931" s="6"/>
+      <c r="AE931" s="6"/>
     </row>
     <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD932" s="6"/>
+      <c r="AE932" s="6"/>
     </row>
     <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD933" s="6"/>
+      <c r="AE933" s="6"/>
     </row>
     <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD934" s="6"/>
+      <c r="AE934" s="6"/>
     </row>
     <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD935" s="6"/>
+      <c r="AE935" s="6"/>
     </row>
     <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD936" s="6"/>
+      <c r="AE936" s="6"/>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD937" s="6"/>
+      <c r="AE937" s="6"/>
     </row>
     <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD938" s="6"/>
+      <c r="AE938" s="6"/>
     </row>
     <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD939" s="6"/>
+      <c r="AE939" s="6"/>
     </row>
     <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD940" s="6"/>
+      <c r="AE940" s="6"/>
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD941" s="6"/>
+      <c r="AE941" s="6"/>
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD942" s="6"/>
+      <c r="AE942" s="6"/>
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD943" s="6"/>
+      <c r="AE943" s="6"/>
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD944" s="6"/>
+      <c r="AE944" s="6"/>
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD945" s="6"/>
+      <c r="AE945" s="6"/>
     </row>
     <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD946" s="6"/>
+      <c r="AE946" s="6"/>
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD947" s="6"/>
+      <c r="AE947" s="6"/>
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD948" s="6"/>
+      <c r="AE948" s="6"/>
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD949" s="6"/>
+      <c r="AE949" s="6"/>
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD950" s="6"/>
+      <c r="AE950" s="6"/>
     </row>
     <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD951" s="6"/>
+      <c r="AE951" s="6"/>
     </row>
     <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD952" s="6"/>
+      <c r="AE952" s="6"/>
     </row>
     <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD953" s="6"/>
+      <c r="AE953" s="6"/>
     </row>
     <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD954" s="6"/>
+      <c r="AE954" s="6"/>
     </row>
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD955" s="6"/>
+      <c r="AE955" s="6"/>
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD956" s="6"/>
+      <c r="AE956" s="6"/>
     </row>
     <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD957" s="6"/>
+      <c r="AE957" s="6"/>
     </row>
     <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD958" s="6"/>
+      <c r="AE958" s="6"/>
     </row>
     <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD959" s="6"/>
+      <c r="AE959" s="6"/>
     </row>
     <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD960" s="6"/>
+      <c r="AE960" s="6"/>
     </row>
     <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD961" s="6"/>
+      <c r="AE961" s="6"/>
     </row>
     <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD962" s="6"/>
+      <c r="AE962" s="6"/>
     </row>
     <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD963" s="6"/>
+      <c r="AE963" s="6"/>
     </row>
     <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD964" s="6"/>
+      <c r="AE964" s="6"/>
     </row>
     <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD965" s="6"/>
+      <c r="AE965" s="6"/>
     </row>
     <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD966" s="6"/>
+      <c r="AE966" s="6"/>
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD967" s="6"/>
+      <c r="AE967" s="6"/>
     </row>
     <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD968" s="6"/>
+      <c r="AE968" s="6"/>
     </row>
     <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD969" s="6"/>
+      <c r="AE969" s="6"/>
     </row>
     <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD970" s="6"/>
+      <c r="AE970" s="6"/>
     </row>
     <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD971" s="6"/>
+      <c r="AE971" s="6"/>
     </row>
     <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD972" s="6"/>
+      <c r="AE972" s="6"/>
     </row>
     <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD973" s="6"/>
+      <c r="AE973" s="6"/>
     </row>
     <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD974" s="6"/>
+      <c r="AE974" s="6"/>
     </row>
     <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD975" s="6"/>
+      <c r="AE975" s="6"/>
     </row>
     <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD976" s="6"/>
+      <c r="AE976" s="6"/>
     </row>
     <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD977" s="6"/>
+      <c r="AE977" s="6"/>
     </row>
     <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD978" s="6"/>
+      <c r="AE978" s="6"/>
     </row>
     <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD979" s="6"/>
+      <c r="AE979" s="6"/>
     </row>
     <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD980" s="6"/>
+      <c r="AE980" s="6"/>
     </row>
     <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD981" s="6"/>
+      <c r="AE981" s="6"/>
     </row>
     <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD982" s="6"/>
+      <c r="AE982" s="6"/>
     </row>
     <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD983" s="6"/>
+      <c r="AE983" s="6"/>
     </row>
     <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD984" s="6"/>
+      <c r="AE984" s="6"/>
     </row>
     <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD985" s="6"/>
+      <c r="AE985" s="6"/>
     </row>
     <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD986" s="6"/>
+      <c r="AE986" s="6"/>
     </row>
     <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD987" s="6"/>
+      <c r="AE987" s="6"/>
     </row>
     <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD988" s="6"/>
+      <c r="AE988" s="6"/>
     </row>
     <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD989" s="6"/>
+      <c r="AE989" s="6"/>
     </row>
     <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD990" s="6"/>
+      <c r="AE990" s="6"/>
     </row>
     <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD991" s="6"/>
+      <c r="AE991" s="6"/>
     </row>
     <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD992" s="6"/>
+      <c r="AE992" s="6"/>
     </row>
     <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD993" s="6"/>
+      <c r="AE993" s="6"/>
     </row>
     <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD994" s="6"/>
+      <c r="AE994" s="6"/>
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD995" s="6"/>
+      <c r="AE995" s="6"/>
     </row>
     <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD996" s="6"/>
+      <c r="AE996" s="6"/>
     </row>
     <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD997" s="6"/>
+      <c r="AE997" s="6"/>
     </row>
     <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD998" s="6"/>
+      <c r="AE998" s="6"/>
     </row>
     <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD999" s="6"/>
+      <c r="AE999" s="6"/>
     </row>
     <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD1000" s="6"/>
+      <c r="AE1000" s="6"/>
     </row>
     <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD1001" s="6"/>
+      <c r="AE1001" s="6"/>
     </row>
     <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD1002" s="6"/>
+      <c r="AE1002" s="6"/>
     </row>
     <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD1003" s="6"/>
+      <c r="AE1003" s="6"/>
     </row>
     <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD1004" s="6"/>
+      <c r="AE1004" s="6"/>
     </row>
     <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD1005" s="6"/>
+      <c r="AE1005" s="6"/>
     </row>
     <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD1006" s="6"/>
+      <c r="AE1006" s="6"/>
     </row>
     <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD1007" s="6"/>
+      <c r="AE1007" s="6"/>
     </row>
     <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD1008" s="6"/>
+      <c r="AE1008" s="6"/>
     </row>
     <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD1009" s="6"/>
+      <c r="AE1009" s="6"/>
     </row>
     <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD1010" s="6"/>
+      <c r="AE1010" s="6"/>
     </row>
     <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD1011" s="6"/>
+      <c r="AE1011" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="AE:AE"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
